--- a/medicine/Enfance/Idéal-Bibliothèque/Idéal-Bibliothèque.xlsx
+++ b/medicine/Enfance/Idéal-Bibliothèque/Idéal-Bibliothèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Id%C3%A9al-Biblioth%C3%A8que</t>
+          <t>Idéal-Bibliothèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Idéal-Bibliothèque est une collection française de livres créée et éditée par Hachette de 1950 à 1987, destinée aux enfants et préadolescents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Id%C3%A9al-Biblioth%C3%A8que</t>
+          <t>Idéal-Bibliothèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1950, Hachette, forte du succès de la collection « Bibliothèque verte », décide de créer une édition de luxe au format plus grand et abondamment illustrée en couleur, qu'elle destine à des lecteurs de la même tranche d'âge que pour la « Bibliothèque verte ».
 Près de 500 titres seront publiés entre 1950 et 1987 (dont 377 numérotés) et dont beaucoup seront imprimés en Belgique, certains à Monaco.
 La collection réédite très souvent des titres déjà parus dans la collection « Bibliothèque verte » : des classiques tels que les romans de Jules Verne et de Louisa May Alcott, des romans sous licence Disney, ou des séries anglo-saxonnes : Alice de Caroline Quine, les romans d'Enid Blyton.
-Les titres publiés dans l’Idéal-Bibliothèque proposaient des textes abrégés[1] par rapport à l’œuvre originale ou des adaptations (les mêmes titres publiés dans la Bibliothèque verte comportaient, eux, le texte intégral)[2].
-À noter qu'il existe une collection homonyme Idéal-Bibliothèque créée en 1909 par l'éditeur Pierre Lafitte, et reprise par Hachette en 1916 lors du rachat des éditions Lafitte[3].
+Les titres publiés dans l’Idéal-Bibliothèque proposaient des textes abrégés par rapport à l’œuvre originale ou des adaptations (les mêmes titres publiés dans la Bibliothèque verte comportaient, eux, le texte intégral).
+À noter qu'il existe une collection homonyme Idéal-Bibliothèque créée en 1909 par l'éditeur Pierre Lafitte, et reprise par Hachette en 1916 lors du rachat des éditions Lafitte.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Id%C3%A9al-Biblioth%C3%A8que</t>
+          <t>Idéal-Bibliothèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Idéal-Bibliothèque s'est inspirée d'une collection concurrente à succès, la « Bibliothèque Rouge &amp; Or », créée trois ans plus tôt par les éditions G. P.. L'Idéal-Bibliothèque utilisera le même format et les mêmes couleurs.
 Les premiers volumes se présentent sous forme cartonnée In-8, en toile percaline écrue décorée de croisillons contenant des dorures en forme de petites étoiles. Cahiers cousus.
 Ils sont enveloppés d'une jaquette en papier illustrée en couleurs, jusqu'en 1969.
 Les livres comptent environ 190 pages au papier de qualité, et comportent de nombreuses illustrations : 
-14 illustrations hors-texte en couleur de pleine page (les dernières éditions n'en compteront plus que neuf)[4]
+14 illustrations hors-texte en couleur de pleine page (les dernières éditions n'en compteront plus que neuf)
 Une double page hors-texte illustrée en couleur
 des illustrations in-texte de demi-page en noir et blanc et en couleur
 des culs-de-lampe en fin de chapitre
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Id%C3%A9al-Biblioth%C3%A8que</t>
+          <t>Idéal-Bibliothèque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,9 +611,11 @@
           <t>Liste exhaustive des romans édités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La liste ci-dessous est exhaustive. L’ordre de présentation de la liste (par ordre alphabétique du nom de l'auteur) est le suivant : auteur, titre, date de la 1re édition et dates des rééditions, numéro du livre (si applicable), illustrateur.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-dessous est exhaustive. L’ordre de présentation de la liste (par ordre alphabétique du nom de l'auteur) est le suivant : auteur, titre, date de la 1re édition et dates des rééditions, numéro du livre (si applicable), illustrateur.
 Anonyme : Aladin et la lampe merveilleuse, 1970 - no 368 - Georges Voǐnesco.
 Fabio de Agostini : Contre récompense, 1959 - no 172 - Jacques Poirier.
 Louisa May Alcott, J. P. Stahl : Les Quatre Filles du docteur March, 1950 - André Pécoud.
@@ -620,7 +638,7 @@
 J. M. Barrie : Peter Pan, 1952, 1970 - no 25 - Marianne Clouzot.
 Georges Bayard : Michel fait du cinéma, 1966 - no 312 - Philippe Daure.
 Georges Bayard : Michel mène l'enquête, 1965 - no 287 - Philippe Daure.
-Olivier Beaucaire[5] : La Valise mystérieuse, 1956 - no 115 - Albert Chazelle.
+Olivier Beaucaire : La Valise mystérieuse, 1956 - no 115 - Albert Chazelle.
 Anne Beauchamps : Le Petit Écolier, 1959 - no 171 - François Batet.
 Anne Beauchamps : Chipie-Boum, 1958 - no 149 - Albert Chazelle.
 Anne Beauchamps : Joia Bella, 1958 - no 148 - Conjat.
@@ -743,13 +761,13 @@
 Charles Dickens : Les Aventures de M. Pickwick, 1978.
 Charles Dickens : David Copperfield, 1953 - Jacques Pecnard.
 Charles Dickens : Le Grillon du foyer, 1973 - Annie Beynel.
-Monica Dickens : Le Ranch de Follyfoot[6], 1972.
+Monica Dickens : Le Ranch de Follyfoot, 1972.
 Diélette : Florence mène le jeu, 1958 - no 156 - Albert Chazelle.
 Diélette : Laurette et la fille des pharaons, 1956 - no 122 (Prix du Salon de l'Enfance 1956) - Albert Chazelle.
 Diélette : Norah joue et gagne, 1957 - no 133 - François Batet.
 Diélette : Norah et l'automate, 1958 - no 164 - François Batet.
 Eilis Dillon : Le Mystère du San Sebastian, 1955 - no 92 - Jacques Poirier.
-Walt Disney : Annette dans la sierra[7], 1967 - no 330 - François Batet.
+Walt Disney : Annette dans la sierra, 1967 - no 330 - François Batet.
 Walt Disney : Les Aristochats, 1971 - no 379.
 Walt Disney : Blanche-Neige et les sept nains, d’après S. Grimm, 1973.
 Walt Disney : Davy Crockett, 1957 - no 121 - Henri Dimpre.
@@ -759,7 +777,7 @@
 Walt Disney : Le Livre de la jungle, Récit du film de Walt Disney d'après Rudyard Kipling, 1968 - no 346.
 Walt Disney : Mickey au pays du géant, 1980.
 Walt Disney : Mickey superstar, 1979.
-Walt Disney : La Revanche de Pablito[8], 1957 - no 140 - François Batet.
+Walt Disney : La Revanche de Pablito, 1957 - no 140 - François Batet.
 Walt Disney : Taram et le Chaudron magique, 1985.
 Walt Disney : Zorro, 1959 - no 176 - François Batet. Réédité en 1972.
 Walt Disney : L'Épée de Zorro, 1975 - François Batet.
@@ -768,14 +786,14 @@
 Walt Disney : Zorro et le sergent Garcia, 1972 - François Batet.
 Walt Disney : Zorro et le trésor du Pérou, 1973 - François Batet.
 Walt Disney : Le Retour de Zorro, 1972 - François Batet.
-Mary Mapes Dodge[9] : Les Patins d'argent (adapté par P.-J. Stahl), 1955 - no 96 - Marianne Clouzot. Réédité en 1963, 1980.
+Mary Mapes Dodge : Les Patins d'argent (adapté par P.-J. Stahl), 1955 - no 96 - Marianne Clouzot. Réédité en 1963, 1980.
 Minou Drouet : La Flamme rousse, 1968, 1978 - no 347 - Daniel Billon.
 Alexandre Dumas : Le Chevalier de Maison-Rouge, 1972 - Jacques Poirier.
 Alexandre Dumas : Les Trois Mousquetaires (2 tomes), 1955, 1961, 1974 - no 15 et no 16 - Jean Reschofsky.
 Gerald Durrell : Rosy l'éléphante, 1971 - no 376 - Françoise Pichard.
 C. Duval : Mon Parachute et moi, 1961 - no 206 - Jean Reschofsky.
 Elsie : Mon grand ami Jan, 1963 - no 249 - Jacques Fromont.
-Erckmann-Chatrian[10] : L'Ami Fritz, 1954, 1967, 1978 - Jacques Pecnard.
+Erckmann-Chatrian : L'Ami Fritz, 1954, 1967, 1978 - Jacques Pecnard.
 Jean d'Esme : Leclerc, 1950, 1952, 1956 - no 03 - Albert Brenet.
 Walter Farley : L'Etalon noir, 1979.
 Odette Ferry : Sissi face à son destin, 1973, 1980 - no 181 - Paul Durand.
@@ -839,7 +857,7 @@
 Yette Jeandet : Le Rendez-vous de la Saint-Sylvestre, 1960 - no 187 - Albert Chazelle.
 Yette Jeandet : Une chanson dans la neige, 1962 - no 224 - Albert Chazelle.
 Jerome K. Jerome : Trois hommes dans un bateau, 1979 - Françoise Pichard
-Erich Kaestner[11] : Émile et les Détectives, 1955 (sans no ), réédité en 1958 - no 84 - Paul Durand.
+Erich Kaestner : Émile et les Détectives, 1955 (sans no ), réédité en 1958 - no 84 - Paul Durand.
 Joseph Kessel : Mermoz, 1951 - no 14 - Roger Parry.
 Rudyard Kipling : Capitaine courageux, 1955 - no 95 - Jean Reschofsky.
 Eric Knight : Lassie, chien fidèle, 1953, 1984 - Albert Chazelle puis Jean-Paul Colbus.
@@ -888,7 +906,7 @@
 Thalie de Molènes : François et la Petite Tahitienne, 1956 - no 110 - Paul Durand.
 Thalie de Molènes : Le Lagon aux perles, 1959 - no 168 - Paul Durand.
 M. Moreau-Bellecroix : Le Perroquet pourpre, 1955 - no 87 - Jacques Pecnard.
-Walt Morey : Le Grand Ours et l'enfant[12], 1968 - no 336 - Philippe Daure.
+Walt Morey : Le Grand Ours et l'enfant, 1968 - no 336 - Philippe Daure.
 Jean Muray : Davy Crockett, roi des trappeurs, 1976.
 Jean Muray : Le Serment de Davy Crockett, 1957 - no 143 - Henri Dimpre. Présenté par Walt Disney.
 Jean Muray : Un guet-apens pour Davy Crockett, 1960 - no 186 - Henri Dimpre.
@@ -1029,7 +1047,8 @@
 Dodie Smith : Les 101 Dalmatiens, 1980 - Jean Reschofsky.
 Gilberte Sollacaro : Bivouac, mon ami, 1956 - no 114 - Pierre Probst.
 Odette Sorensen : La Prison sous les arbres, 1976 - Paul Durand.
-Robert-Louis Stevenson : L'Évadé d’Édimbourg, 1954 - Henri Faivre</t>
+Robert-Louis Stevenson : L'Évadé d’Édimbourg, 1954 - Henri Faivre.
+Robert-Louis Stevenson : </t>
         </is>
       </c>
     </row>
